--- a/docs/excel/企业信息.xlsx
+++ b/docs/excel/企业信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>广东省,深圳市,南山区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,9 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -381,6 +383,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
